--- a/biology/Médecine/João_Bermudes/João_Bermudes.xlsx
+++ b/biology/Médecine/João_Bermudes/João_Bermudes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jo%C3%A3o_Bermudes</t>
+          <t>João_Bermudes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">João Bermudes, Jean Bermudez ou Juan Bermudez est un médecin portugais, né en Galice à la fin du XVe siècle, et décédé en 1570 ou 1575 à Lisbonne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jo%C3%A3o_Bermudes</t>
+          <t>João_Bermudes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il suit en 1520 l'ambassadeur du roi Manuel Ier de Portugal en Abyssinie, et s'insinue tellement dans l'esprit du roi de ce pays alors catholique, que ce prince lui accorde le titre de patriarche d'Abyssinie. Il réside dans cette contrée pendant 30 ans, et revient mourir à Lisbonne vers 1575. 
-Il aurait été fait patriarche d'Éthiopie à la demande du roi Lebna-Dengel[1].
+Il aurait été fait patriarche d'Éthiopie à la demande du roi Lebna-Dengel.
 Une relation de son voyage est conservée manuscrite aux archives de Lisbonne.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jo%C3%A3o_Bermudes</t>
+          <t>João_Bermudes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La guerre adalo-éthiopienne (1527-1543) oppose l'Empire éthiopien (David II d'Éthiopie puis Gelawdéwos) au Sultanat d'Adal par les troupes de l’imam Ahmed Ibn Ibrahim Al-Ghazi (Ahmed Gragne, Grañ, Le Gaucher), « roi de Zeilah ». Le sultanat d’Adal est soutenu par l'Empire ottoman et les Éthiopiens par le royaume du Portugal, dans le contexte des expéditions navales ottomanes dans l'océan Indien et d'établissement de l'empire colonial portugais. 
 João Bermudes (~1500-1575), médecin portugais, prétendu « Patriarche du Prêtre Jean », évoque ces événements. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jo%C3%A3o_Bermudes</t>
+          <t>João_Bermudes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>João Bermudes, Ma géniale imposture (Patriarche du Prêtre Jean), introduction de Hervé Pennec, traduction par Sandra Rodrigues de Oliveira, Anacharsis (édition), Toulouse, 2010, 192 pages  (ISBN 978-2-914-777-62-9)</t>
         </is>
